--- a/4.Analysis/Data/raw/day1/phase_010/select_day1_phase_010.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_010/select_day1_phase_010.xlsx
@@ -1,106 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="20150" windowHeight="6710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day1</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>ever_join_similar</t>
-  </si>
-  <si>
-    <t>ever_IAT</t>
-  </si>
-  <si>
-    <t>ever_AlT</t>
-  </si>
-  <si>
-    <t>ever_ques</t>
-  </si>
-  <si>
-    <t>Env_Q2_item4</t>
-  </si>
-  <si>
-    <t>join_interval</t>
-  </si>
-  <si>
-    <t>going_normal</t>
-  </si>
-  <si>
-    <t>full_screen</t>
-  </si>
-  <si>
-    <t>any_problem</t>
-  </si>
-  <si>
-    <t>distrub</t>
-  </si>
-  <si>
-    <t>when_disturb</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_join_similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_IAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_AlT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env_Q2_item4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any_problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	598903596641157120</t>
   </si>
   <si>
-    <t>7</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">	铃铛当当当</t>
@@ -109,43 +107,43 @@
     <t xml:space="preserve">	2024-01-05 15:58:31</t>
   </si>
   <si>
-    <t>1小时9分53秒</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>61.168.63.120</t>
-  </si>
-  <si>
-    <t>问题反馈</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>-888</t>
-  </si>
-  <si>
-    <t>从无</t>
-  </si>
-  <si>
-    <t>G.从无</t>
-  </si>
-  <si>
-    <t>A.一切正常</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>-999</t>
-  </si>
-  <si>
-    <t>A.我没有受到任何干扰</t>
+    <t xml:space="preserve">1小时9分53秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.168.63.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一切正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
@@ -154,22 +152,22 @@
     <t xml:space="preserve">人的反应能力强度多少	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>phase_010_subj_19</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_010_subj_19</t>
   </si>
   <si>
     <t xml:space="preserve">	598911150104510464</t>
   </si>
   <si>
-    <t>18</t>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">	8080</t>
@@ -178,22 +176,22 @@
     <t xml:space="preserve">	2024-01-05 21:34:01</t>
   </si>
   <si>
-    <t>1小时3分29秒</t>
-  </si>
-  <si>
-    <t>36.134.67.251</t>
+    <t xml:space="preserve">1小时3分29秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.134.67.251</t>
   </si>
   <si>
     <t xml:space="preserve">看每个人对自己的看法有什么不同	</t>
   </si>
   <si>
-    <t>phase_010_subj_18</t>
+    <t xml:space="preserve">phase_010_subj_18</t>
   </si>
   <si>
     <t xml:space="preserve">	602303969804419072</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">	超级忙</t>
@@ -202,22 +200,22 @@
     <t xml:space="preserve">	2024-01-05 11:50:38</t>
   </si>
   <si>
-    <t>1小时4分47秒</t>
-  </si>
-  <si>
-    <t>36.137.8.251</t>
+    <t xml:space="preserve">1小时4分47秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.137.8.251</t>
   </si>
   <si>
     <t xml:space="preserve">人对自己的自我认知	</t>
   </si>
   <si>
-    <t>phase_010_subj_23</t>
+    <t xml:space="preserve">phase_010_subj_23</t>
   </si>
   <si>
     <t xml:space="preserve">	619618027951882240</t>
   </si>
   <si>
-    <t>15</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">	李某人</t>
@@ -226,22 +224,22 @@
     <t xml:space="preserve">	2024-01-05 18:08:10</t>
   </si>
   <si>
-    <t>56分9秒</t>
-  </si>
-  <si>
-    <t>119.167.194.137</t>
+    <t xml:space="preserve">56分9秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.167.194.137</t>
   </si>
   <si>
     <t xml:space="preserve">自我认定的程度	</t>
   </si>
   <si>
-    <t>phase_010_subj_9</t>
+    <t xml:space="preserve">phase_010_subj_9</t>
   </si>
   <si>
     <t xml:space="preserve">	621344079120171008</t>
   </si>
   <si>
-    <t>16</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">	梦一场</t>
@@ -250,10 +248,10 @@
     <t xml:space="preserve">	2024-01-05 20:04:39</t>
   </si>
   <si>
-    <t>59分54秒</t>
-  </si>
-  <si>
-    <t>113.201.37.66</t>
+    <t xml:space="preserve">59分54秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.201.37.66</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -262,13 +260,13 @@
     <t xml:space="preserve">不同人反应能力	</t>
   </si>
   <si>
-    <t>phase_010_subj_15</t>
+    <t xml:space="preserve">phase_010_subj_15</t>
   </si>
   <si>
     <t xml:space="preserve">	621363018810261504</t>
   </si>
   <si>
-    <t>20</t>
+    <t xml:space="preserve">20</t>
   </si>
   <si>
     <t xml:space="preserve">	欣欣相融</t>
@@ -277,22 +275,22 @@
     <t xml:space="preserve">	2024-01-05 22:45:28</t>
   </si>
   <si>
-    <t>1小时9分23秒</t>
-  </si>
-  <si>
-    <t>219.151.28.88</t>
+    <t xml:space="preserve">1小时9分23秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.151.28.88</t>
   </si>
   <si>
     <t xml:space="preserve">研究个人的分析能力和判断力以及反应力	</t>
   </si>
   <si>
-    <t>phase_010_subj_25</t>
+    <t xml:space="preserve">phase_010_subj_25</t>
   </si>
   <si>
     <t xml:space="preserve">	621383779721674752</t>
   </si>
   <si>
-    <t>12</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">	Wishb</t>
@@ -301,22 +299,22 @@
     <t xml:space="preserve">	2024-01-05 17:08:41</t>
   </si>
   <si>
-    <t>1小时7分40秒</t>
-  </si>
-  <si>
-    <t>49.73.235.251</t>
+    <t xml:space="preserve">1小时7分40秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.73.235.251</t>
   </si>
   <si>
     <t xml:space="preserve">人对自我和朋友看法有何区别	</t>
   </si>
   <si>
-    <t>phase_010_subj_14</t>
+    <t xml:space="preserve">phase_010_subj_14</t>
   </si>
   <si>
     <t xml:space="preserve">	625294467993174016</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">	泡芙</t>
@@ -325,22 +323,22 @@
     <t xml:space="preserve">	2024-01-05 15:10:55</t>
   </si>
   <si>
-    <t>1小时1分17秒</t>
-  </si>
-  <si>
-    <t>117.62.207.22</t>
+    <t xml:space="preserve">1小时1分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.62.207.22</t>
   </si>
   <si>
     <t xml:space="preserve">测试反应能力	</t>
   </si>
   <si>
-    <t>phase_010_subj_3</t>
+    <t xml:space="preserve">phase_010_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	628519267599384576</t>
   </si>
   <si>
-    <t>21</t>
+    <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">	陈凯乐</t>
@@ -349,10 +347,10 @@
     <t xml:space="preserve">	2024-01-05 22:51:48</t>
   </si>
   <si>
-    <t>54分47秒</t>
-  </si>
-  <si>
-    <t>117.169.192.228</t>
+    <t xml:space="preserve">54分47秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.169.192.228</t>
   </si>
   <si>
     <t xml:space="preserve">实验时长能不能短一点	</t>
@@ -361,13 +359,13 @@
     <t xml:space="preserve">耐心和专注，反应力	</t>
   </si>
   <si>
-    <t>phase_010_subj_6</t>
+    <t xml:space="preserve">phase_010_subj_6</t>
   </si>
   <si>
     <t xml:space="preserve">	650407062907387904</t>
   </si>
   <si>
-    <t>3</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">	嘉</t>
@@ -376,22 +374,22 @@
     <t xml:space="preserve">	2024-01-05 14:46:17</t>
   </si>
   <si>
-    <t>59分13秒</t>
-  </si>
-  <si>
-    <t>112.97.87.232</t>
+    <t xml:space="preserve">59分13秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.97.87.232</t>
   </si>
   <si>
     <t xml:space="preserve">让自己自信	</t>
   </si>
   <si>
-    <t>phase_010_subj_22</t>
+    <t xml:space="preserve">phase_010_subj_22</t>
   </si>
   <si>
     <t xml:space="preserve">	689181573102174208</t>
   </si>
   <si>
-    <t>23</t>
+    <t xml:space="preserve">23</t>
   </si>
   <si>
     <t xml:space="preserve">	美芳</t>
@@ -400,19 +398,19 @@
     <t xml:space="preserve">	2024-01-06 17:09:47</t>
   </si>
   <si>
-    <t>57分28秒</t>
-  </si>
-  <si>
-    <t>112.97.82.118</t>
-  </si>
-  <si>
-    <t>phase_010_subj_21</t>
+    <t xml:space="preserve">57分28秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.97.82.118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_010_subj_21</t>
   </si>
   <si>
     <t xml:space="preserve">	714626757918982144</t>
   </si>
   <si>
-    <t>11</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">	wp。。</t>
@@ -421,10 +419,10 @@
     <t xml:space="preserve">	2024-01-05 16:40:12</t>
   </si>
   <si>
-    <t>1小时9分25秒</t>
-  </si>
-  <si>
-    <t>60.167.180.239</t>
+    <t xml:space="preserve">1小时9分25秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.167.180.239</t>
   </si>
   <si>
     <t xml:space="preserve">没有意见提供	</t>
@@ -433,13 +431,13 @@
     <t xml:space="preserve">做了那么久，好像是关于人际的一些问题	</t>
   </si>
   <si>
-    <t>phase_010_subj_24</t>
+    <t xml:space="preserve">phase_010_subj_24</t>
   </si>
   <si>
     <t xml:space="preserve">	717817858293235712</t>
   </si>
   <si>
-    <t>6</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">	笑发财了</t>
@@ -448,22 +446,22 @@
     <t xml:space="preserve">	2024-01-05 15:23:51</t>
   </si>
   <si>
-    <t>1小时6分35秒</t>
-  </si>
-  <si>
-    <t>42.49.109.38</t>
+    <t xml:space="preserve">1小时6分35秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.49.109.38</t>
   </si>
   <si>
     <t xml:space="preserve">对图文的反应	</t>
   </si>
   <si>
-    <t>phase_010_subj_1</t>
+    <t xml:space="preserve">phase_010_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	720327574219128832</t>
   </si>
   <si>
-    <t>14</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">	用户28248</t>
@@ -472,25 +470,25 @@
     <t xml:space="preserve">	2024-01-05 17:25:45</t>
   </si>
   <si>
-    <t>1小时15秒</t>
-  </si>
-  <si>
-    <t>106.9.84.245</t>
-  </si>
-  <si>
-    <t>类似的问卷调查</t>
-  </si>
-  <si>
-    <t>D.三个月内</t>
-  </si>
-  <si>
-    <t>phase_010_subj_13</t>
+    <t xml:space="preserve">1小时15秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.9.84.245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类似的问卷调查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.三个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_010_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	732534816976932865</t>
   </si>
   <si>
-    <t>8</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">	张梦姣</t>
@@ -499,22 +497,22 @@
     <t xml:space="preserve">	2024-01-05 16:11:54</t>
   </si>
   <si>
-    <t>53分56秒</t>
-  </si>
-  <si>
-    <t>36.99.153.190</t>
+    <t xml:space="preserve">53分56秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.99.153.190</t>
   </si>
   <si>
     <t xml:space="preserve">我感觉这个实验是为了测试按键反应。	</t>
   </si>
   <si>
-    <t>phase_010_subj_2</t>
+    <t xml:space="preserve">phase_010_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	746367844434055169</t>
   </si>
   <si>
-    <t>19</t>
+    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">	向川</t>
@@ -523,22 +521,22 @@
     <t xml:space="preserve">	2024-01-05 21:56:21</t>
   </si>
   <si>
-    <t>1小时13分9秒</t>
-  </si>
-  <si>
-    <t>116.162.132.1</t>
+    <t xml:space="preserve">1小时13分9秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.162.132.1</t>
   </si>
   <si>
     <t xml:space="preserve">文字和图形的匹配	</t>
   </si>
   <si>
-    <t>phase_010_subj_20</t>
+    <t xml:space="preserve">phase_010_subj_20</t>
   </si>
   <si>
     <t xml:space="preserve">	757590139374669825</t>
   </si>
   <si>
-    <t>13</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">	浮生远离</t>
@@ -547,22 +545,22 @@
     <t xml:space="preserve">	2024-01-05 17:26:10</t>
   </si>
   <si>
-    <t>1小时10分40秒</t>
-  </si>
-  <si>
-    <t>113.108.95.197</t>
+    <t xml:space="preserve">1小时10分40秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.108.95.197</t>
   </si>
   <si>
     <t xml:space="preserve">我感觉这个实验是为了想要了解人的心理情况，通过按键，看人心里的反应	</t>
   </si>
   <si>
-    <t>phase_010_subj_12</t>
+    <t xml:space="preserve">phase_010_subj_12</t>
   </si>
   <si>
     <t xml:space="preserve">	772058156674322434</t>
   </si>
   <si>
-    <t>17</t>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">	用户39005</t>
@@ -571,10 +569,10 @@
     <t xml:space="preserve">	2024-01-05 20:40:12</t>
   </si>
   <si>
-    <t>1小时3分3秒</t>
-  </si>
-  <si>
-    <t>113.68.110.176</t>
+    <t xml:space="preserve">1小时3分3秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.68.110.176</t>
   </si>
   <si>
     <t xml:space="preserve">如果增加点有趣的互动游戏更好了	</t>
@@ -583,13 +581,13 @@
     <t xml:space="preserve">别人与我性格不同地方？还是自己品德方面？	</t>
   </si>
   <si>
-    <t>phase_010_subj_11</t>
+    <t xml:space="preserve">phase_010_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	773203800659070978</t>
   </si>
   <si>
-    <t>9</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">	赵洪波</t>
@@ -598,10 +596,10 @@
     <t xml:space="preserve">	2024-01-05 16:26:09</t>
   </si>
   <si>
-    <t>1小时2分5秒</t>
-  </si>
-  <si>
-    <t>58.16.61.51</t>
+    <t xml:space="preserve">1小时2分5秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.16.61.51</t>
   </si>
   <si>
     <t xml:space="preserve">挺合理的安排	</t>
@@ -610,13 +608,13 @@
     <t xml:space="preserve">测试人们的反应能力	</t>
   </si>
   <si>
-    <t>phase_010_subj_16</t>
+    <t xml:space="preserve">phase_010_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	776852011219161090</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">	用户39847</t>
@@ -625,22 +623,22 @@
     <t xml:space="preserve">	2024-01-05 15:00:11</t>
   </si>
   <si>
-    <t>57分35秒</t>
-  </si>
-  <si>
-    <t>221.192.178.41</t>
-  </si>
-  <si>
-    <t>C.一个月内</t>
-  </si>
-  <si>
-    <t>phase_010_subj_10</t>
+    <t xml:space="preserve">57分35秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.192.178.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.一个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_010_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	794660896956882945</t>
   </si>
   <si>
-    <t>2</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">	用户42959</t>
@@ -649,13 +647,13 @@
     <t xml:space="preserve">	2024-01-05 12:21:30</t>
   </si>
   <si>
-    <t>55分2秒</t>
-  </si>
-  <si>
-    <t>117.136.10.237</t>
-  </si>
-  <si>
-    <t>A.一周内</t>
+    <t xml:space="preserve">55分2秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.136.10.237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">很完善	</t>
@@ -664,7 +662,7 @@
     <t xml:space="preserve">探究性格与反应快慢的关系	</t>
   </si>
   <si>
-    <t>phase_010_subj_17</t>
+    <t xml:space="preserve">phase_010_subj_17</t>
   </si>
   <si>
     <t xml:space="preserve">	631517716984889344</t>
@@ -673,374 +671,32 @@
     <t xml:space="preserve">	江城</t>
   </si>
   <si>
-    <t>phase_010_subj_7</t>
+    <t xml:space="preserve">phase_010_subj_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1048,526 +704,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1844,21 +991,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2020,11 +1165,11 @@
       <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2103,11 +1248,11 @@
       <c r="Z3" t="s">
         <v>57</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2186,11 +1331,11 @@
       <c r="Z4" t="s">
         <v>65</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2269,11 +1414,11 @@
       <c r="Z5" t="s">
         <v>73</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2352,11 +1497,11 @@
       <c r="Z6" t="s">
         <v>82</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2435,11 +1580,11 @@
       <c r="Z7" t="s">
         <v>90</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -2518,11 +1663,11 @@
       <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -2601,11 +1746,11 @@
       <c r="Z9" t="s">
         <v>106</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2684,11 +1829,11 @@
       <c r="Z10" t="s">
         <v>115</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2767,11 +1912,11 @@
       <c r="Z11" t="s">
         <v>123</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>637</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -2850,11 +1995,11 @@
       <c r="Z12" t="s">
         <v>130</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -2933,11 +2078,11 @@
       <c r="Z13" t="s">
         <v>139</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -3016,11 +2161,11 @@
       <c r="Z14" t="s">
         <v>147</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -3099,11 +2244,11 @@
       <c r="Z15" t="s">
         <v>156</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -3182,11 +2327,11 @@
       <c r="Z16" t="s">
         <v>164</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -3265,11 +2410,11 @@
       <c r="Z17" t="s">
         <v>172</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -3348,11 +2493,11 @@
       <c r="Z18" t="s">
         <v>180</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="n">
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -3431,11 +2576,11 @@
       <c r="Z19" t="s">
         <v>189</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -3514,11 +2659,11 @@
       <c r="Z20" t="s">
         <v>198</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -3597,11 +2742,11 @@
       <c r="Z21" t="s">
         <v>206</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" t="n">
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -3680,36 +2825,51 @@
       <c r="Z22" t="s">
         <v>216</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" t="n">
         <v>538</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23">
       <c r="A23" t="s">
         <v>217</v>
       </c>
+      <c r="B23"/>
       <c r="C23" t="s">
         <v>218</v>
       </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
       <c r="W23" t="s">
         <v>46</v>
       </c>
-      <c r="X23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>48</v>
-      </c>
+      <c r="X23"/>
+      <c r="Y23"/>
       <c r="Z23" t="s">
         <v>219</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" t="n">
         <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>